--- a/수정리스트_20160810.xlsx
+++ b/수정리스트_20160810.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="195" windowWidth="24240" windowHeight="12435"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="328">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1343,10 +1343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2016.08.09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1393,8 +1389,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1710,7 +1706,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1754,7 +1750,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1798,7 +1794,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1842,7 +1838,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1886,7 +1882,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1930,7 +1926,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1974,7 +1970,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2018,7 +2014,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2062,7 +2058,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2103,10 +2099,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2204,7 +2200,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2239,7 +2234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2415,14 +2409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.875" style="15" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="2" customWidth="1"/>
@@ -2435,7 +2429,7 @@
     <col min="9" max="9" width="60.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26.25" customHeight="1">
       <c r="A1" s="39" t="s">
         <v>239</v>
       </c>
@@ -2448,7 +2442,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2477,7 +2471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="4" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -2496,7 +2490,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="36">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -2513,7 +2507,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="32.25" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -2536,7 +2530,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="12" customFormat="1">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -2561,7 +2555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="12" customFormat="1">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -2584,7 +2578,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="12" customFormat="1">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -2607,7 +2601,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="12" customFormat="1">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
@@ -2632,7 +2626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="19" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>12</v>
       </c>
@@ -2657,7 +2651,7 @@
       </c>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="19" customFormat="1">
       <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
@@ -2682,7 +2676,7 @@
       </c>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="12" customFormat="1">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -2705,7 +2699,7 @@
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="12" customFormat="1">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
@@ -2728,7 +2722,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -2739,7 +2733,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="12" customFormat="1">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
@@ -2760,7 +2754,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="19" customFormat="1" ht="24">
       <c r="A16" s="16" t="s">
         <v>13</v>
       </c>
@@ -2787,7 +2781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="12" customFormat="1">
       <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
@@ -2806,7 +2800,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -2817,7 +2811,7 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" s="22" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="22" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>32</v>
       </c>
@@ -2844,7 +2838,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>47</v>
       </c>
@@ -2871,7 +2865,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A21" s="16" t="s">
         <v>48</v>
       </c>
@@ -2898,7 +2892,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A22" s="16" t="s">
         <v>61</v>
       </c>
@@ -2923,7 +2917,7 @@
       </c>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A23" s="16" t="s">
         <v>70</v>
       </c>
@@ -2946,7 +2940,7 @@
       </c>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A24" s="16" t="s">
         <v>61</v>
       </c>
@@ -2971,7 +2965,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A25" s="16" t="s">
         <v>80</v>
       </c>
@@ -2996,7 +2990,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A26" s="16" t="s">
         <v>86</v>
       </c>
@@ -3023,7 +3017,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A27" s="16" t="s">
         <v>86</v>
       </c>
@@ -3050,7 +3044,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A28" s="16" t="s">
         <v>86</v>
       </c>
@@ -3075,7 +3069,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A29" s="16" t="s">
         <v>96</v>
       </c>
@@ -3098,7 +3092,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A30" s="16" t="s">
         <v>96</v>
       </c>
@@ -3121,7 +3115,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A31" s="16" t="s">
         <v>96</v>
       </c>
@@ -3146,7 +3140,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A32" s="16" t="s">
         <v>96</v>
       </c>
@@ -3167,7 +3161,7 @@
       <c r="H32" s="16"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A33" s="16" t="s">
         <v>96</v>
       </c>
@@ -3190,7 +3184,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A34" s="16" t="s">
         <v>96</v>
       </c>
@@ -3211,7 +3205,7 @@
       <c r="H34" s="16"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A35" s="16" t="s">
         <v>96</v>
       </c>
@@ -3232,7 +3226,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A36" s="16" t="s">
         <v>96</v>
       </c>
@@ -3253,7 +3247,7 @@
       <c r="H36" s="16"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A37" s="16" t="s">
         <v>96</v>
       </c>
@@ -3274,7 +3268,7 @@
       <c r="H37" s="16"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A38" s="16" t="s">
         <v>96</v>
       </c>
@@ -3295,7 +3289,7 @@
       <c r="H38" s="16"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A39" s="16" t="s">
         <v>96</v>
       </c>
@@ -3316,7 +3310,7 @@
       <c r="H39" s="16"/>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A40" s="16" t="s">
         <v>96</v>
       </c>
@@ -3337,7 +3331,7 @@
       <c r="H40" s="16"/>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A41" s="16" t="s">
         <v>96</v>
       </c>
@@ -3358,7 +3352,7 @@
       <c r="H41" s="16"/>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A42" s="16" t="s">
         <v>123</v>
       </c>
@@ -3379,7 +3373,7 @@
       <c r="H42" s="16"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A43" s="16" t="s">
         <v>123</v>
       </c>
@@ -3400,7 +3394,7 @@
       <c r="H43" s="16"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A44" s="16" t="s">
         <v>123</v>
       </c>
@@ -3423,7 +3417,7 @@
       <c r="H44" s="16"/>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A45" s="16" t="s">
         <v>123</v>
       </c>
@@ -3444,7 +3438,7 @@
       <c r="H45" s="16"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1">
       <c r="A46" s="25"/>
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
@@ -3455,7 +3449,7 @@
       <c r="H46" s="25"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A47" s="16" t="s">
         <v>203</v>
       </c>
@@ -3476,7 +3470,7 @@
       <c r="H47" s="16"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A48" s="16" t="s">
         <v>203</v>
       </c>
@@ -3497,7 +3491,7 @@
       <c r="H48" s="16"/>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A49" s="16" t="s">
         <v>203</v>
       </c>
@@ -3518,7 +3512,7 @@
       <c r="H49" s="16"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A50" s="16" t="s">
         <v>203</v>
       </c>
@@ -3541,7 +3535,7 @@
       <c r="H50" s="16"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A51" s="16" t="s">
         <v>203</v>
       </c>
@@ -3564,7 +3558,7 @@
       <c r="H51" s="16"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A52" s="16" t="s">
         <v>203</v>
       </c>
@@ -3587,7 +3581,7 @@
       <c r="H52" s="16"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A53" s="16" t="s">
         <v>203</v>
       </c>
@@ -3610,7 +3604,7 @@
       <c r="H53" s="16"/>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A54" s="16" t="s">
         <v>203</v>
       </c>
@@ -3633,7 +3627,7 @@
       <c r="H54" s="16"/>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A55" s="16" t="s">
         <v>203</v>
       </c>
@@ -3656,7 +3650,7 @@
       <c r="H55" s="16"/>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A56" s="16" t="s">
         <v>203</v>
       </c>
@@ -3679,7 +3673,7 @@
       <c r="H56" s="16"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A57" s="16" t="s">
         <v>203</v>
       </c>
@@ -3702,7 +3696,7 @@
       <c r="H57" s="16"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A58" s="16" t="s">
         <v>203</v>
       </c>
@@ -3725,7 +3719,7 @@
       <c r="H58" s="16"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A59" s="16" t="s">
         <v>203</v>
       </c>
@@ -3748,7 +3742,7 @@
       <c r="H59" s="16"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A60" s="16" t="s">
         <v>203</v>
       </c>
@@ -3771,7 +3765,7 @@
       <c r="H60" s="16"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A61" s="16" t="s">
         <v>203</v>
       </c>
@@ -3792,7 +3786,7 @@
       <c r="H61" s="16"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -3803,7 +3797,7 @@
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
     </row>
-    <row r="63" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A63" s="16" t="s">
         <v>160</v>
       </c>
@@ -3826,7 +3820,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A64" s="16" t="s">
         <v>160</v>
       </c>
@@ -3847,7 +3841,7 @@
       <c r="H64" s="16"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A65" s="16" t="s">
         <v>160</v>
       </c>
@@ -3870,7 +3864,7 @@
       <c r="H65" s="16"/>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A66" s="16" t="s">
         <v>160</v>
       </c>
@@ -3895,7 +3889,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A67" s="16" t="s">
         <v>160</v>
       </c>
@@ -3920,7 +3914,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A68" s="16" t="s">
         <v>160</v>
       </c>
@@ -3943,7 +3937,7 @@
       <c r="H68" s="16"/>
       <c r="I68" s="23"/>
     </row>
-    <row r="69" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A69" s="16" t="s">
         <v>160</v>
       </c>
@@ -3966,7 +3960,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A70" s="16" t="s">
         <v>160</v>
       </c>
@@ -3989,7 +3983,7 @@
       <c r="H70" s="16"/>
       <c r="I70" s="23"/>
     </row>
-    <row r="71" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A71" s="16" t="s">
         <v>160</v>
       </c>
@@ -4010,7 +4004,7 @@
       <c r="H71" s="16"/>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A72" s="16" t="s">
         <v>160</v>
       </c>
@@ -4035,7 +4029,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A73" s="16" t="s">
         <v>160</v>
       </c>
@@ -4058,7 +4052,7 @@
       <c r="H73" s="16"/>
       <c r="I73" s="23"/>
     </row>
-    <row r="74" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A74" s="16" t="s">
         <v>160</v>
       </c>
@@ -4081,7 +4075,7 @@
       <c r="H74" s="16"/>
       <c r="I74" s="23"/>
     </row>
-    <row r="75" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A75" s="16" t="s">
         <v>160</v>
       </c>
@@ -4104,7 +4098,7 @@
       <c r="H75" s="16"/>
       <c r="I75" s="23"/>
     </row>
-    <row r="76" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A76" s="16" t="s">
         <v>160</v>
       </c>
@@ -4127,7 +4121,7 @@
       <c r="H76" s="16"/>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A77" s="16" t="s">
         <v>160</v>
       </c>
@@ -4152,7 +4146,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A78" s="16" t="s">
         <v>160</v>
       </c>
@@ -4175,7 +4169,7 @@
       <c r="H78" s="16"/>
       <c r="I78" s="23"/>
     </row>
-    <row r="79" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
       <c r="A79" s="16" t="s">
         <v>160</v>
       </c>
@@ -4198,7 +4192,7 @@
       <c r="H79" s="16"/>
       <c r="I79" s="23"/>
     </row>
-    <row r="80" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
       <c r="A80" s="16" t="s">
         <v>160</v>
       </c>
@@ -4221,7 +4215,7 @@
       <c r="H80" s="16"/>
       <c r="I80" s="23"/>
     </row>
-    <row r="81" spans="1:9" s="19" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" s="19" customFormat="1" ht="111" customHeight="1">
       <c r="A81" s="16" t="s">
         <v>160</v>
       </c>
@@ -4244,7 +4238,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
       <c r="A82" s="16" t="s">
         <v>160</v>
       </c>
@@ -4267,7 +4261,7 @@
       <c r="H82" s="16"/>
       <c r="I82" s="23"/>
     </row>
-    <row r="83" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
       <c r="A83" s="16" t="s">
         <v>203</v>
       </c>
@@ -4290,7 +4284,7 @@
       <c r="H83" s="16"/>
       <c r="I83" s="23"/>
     </row>
-    <row r="84" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A84" s="16" t="s">
         <v>160</v>
       </c>
@@ -4313,7 +4307,7 @@
       <c r="H84" s="16"/>
       <c r="I84" s="23"/>
     </row>
-    <row r="85" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
       <c r="A85" s="16" t="s">
         <v>160</v>
       </c>
@@ -4338,7 +4332,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
       <c r="A86" s="16" t="s">
         <v>245</v>
       </c>
@@ -4361,7 +4355,7 @@
       <c r="H86" s="16"/>
       <c r="I86" s="23"/>
     </row>
-    <row r="87" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
       <c r="A87" s="16" t="s">
         <v>253</v>
       </c>
@@ -4384,7 +4378,7 @@
       <c r="H87" s="16"/>
       <c r="I87" s="23"/>
     </row>
-    <row r="88" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
       <c r="A88" s="16" t="s">
         <v>253</v>
       </c>
@@ -4407,7 +4401,7 @@
       <c r="H88" s="16"/>
       <c r="I88" s="23"/>
     </row>
-    <row r="89" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
       <c r="A89" s="16" t="s">
         <v>253</v>
       </c>
@@ -4430,7 +4424,7 @@
       <c r="H89" s="16"/>
       <c r="I89" s="23"/>
     </row>
-    <row r="90" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1">
       <c r="A90" s="16" t="s">
         <v>253</v>
       </c>
@@ -4455,7 +4449,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" s="19" customFormat="1" ht="60.75" customHeight="1">
       <c r="A91" s="16" t="s">
         <v>253</v>
       </c>
@@ -4478,7 +4472,7 @@
       <c r="H91" s="16"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="40.5" customHeight="1">
       <c r="A92" s="40" t="s">
         <v>238</v>
       </c>
@@ -4491,7 +4485,7 @@
       <c r="H92" s="40"/>
       <c r="I92" s="40"/>
     </row>
-    <row r="93" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A93" s="5" t="s">
         <v>0</v>
       </c>
@@ -4520,7 +4514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A94" s="16" t="s">
         <v>96</v>
       </c>
@@ -4545,7 +4539,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="19" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" s="19" customFormat="1" ht="40.5" customHeight="1">
       <c r="A95" s="16" t="s">
         <v>160</v>
       </c>
@@ -4568,7 +4562,7 @@
       <c r="H95" s="16"/>
       <c r="I95" s="23"/>
     </row>
-    <row r="96" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A96" s="16" t="s">
         <v>160</v>
       </c>
@@ -4591,7 +4585,7 @@
       <c r="H96" s="16"/>
       <c r="I96" s="23"/>
     </row>
-    <row r="97" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A97" s="16" t="s">
         <v>241</v>
       </c>
@@ -4612,7 +4606,7 @@
       <c r="H97" s="16"/>
       <c r="I97" s="23"/>
     </row>
-    <row r="98" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A98" s="16" t="s">
         <v>241</v>
       </c>
@@ -4633,7 +4627,7 @@
       <c r="H98" s="16"/>
       <c r="I98" s="23"/>
     </row>
-    <row r="99" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A99" s="16" t="s">
         <v>267</v>
       </c>
@@ -4656,7 +4650,7 @@
       <c r="H99" s="16"/>
       <c r="I99" s="23"/>
     </row>
-    <row r="100" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A100" s="16" t="s">
         <v>267</v>
       </c>
@@ -4679,7 +4673,7 @@
       <c r="H100" s="16"/>
       <c r="I100" s="23"/>
     </row>
-    <row r="101" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A101" s="16" t="s">
         <v>270</v>
       </c>
@@ -4700,7 +4694,7 @@
       <c r="H101" s="16"/>
       <c r="I101" s="23"/>
     </row>
-    <row r="102" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A102" s="16" t="s">
         <v>270</v>
       </c>
@@ -4721,7 +4715,7 @@
       <c r="H102" s="16"/>
       <c r="I102" s="23"/>
     </row>
-    <row r="103" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A103" s="16" t="s">
         <v>270</v>
       </c>
@@ -4742,7 +4736,7 @@
       <c r="H103" s="16"/>
       <c r="I103" s="23"/>
     </row>
-    <row r="104" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A104" s="16" t="s">
         <v>270</v>
       </c>
@@ -4765,7 +4759,7 @@
       <c r="H104" s="16"/>
       <c r="I104" s="23"/>
     </row>
-    <row r="105" spans="1:9" s="19" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" s="19" customFormat="1" ht="104.25" customHeight="1">
       <c r="A105" s="16" t="s">
         <v>281</v>
       </c>
@@ -4788,7 +4782,7 @@
       <c r="H105" s="16"/>
       <c r="I105" s="23"/>
     </row>
-    <row r="106" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A106" s="16" t="s">
         <v>282</v>
       </c>
@@ -4809,7 +4803,7 @@
       <c r="H106" s="16"/>
       <c r="I106" s="23"/>
     </row>
-    <row r="107" spans="1:9" s="19" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" s="19" customFormat="1" ht="73.5" customHeight="1">
       <c r="A107" s="16"/>
       <c r="B107" s="23" t="s">
         <v>283</v>
@@ -4832,7 +4826,7 @@
       <c r="H107" s="16"/>
       <c r="I107" s="23"/>
     </row>
-    <row r="108" spans="1:9" s="19" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" s="19" customFormat="1" ht="69" customHeight="1">
       <c r="A108" s="16" t="s">
         <v>282</v>
       </c>
@@ -4841,10 +4835,10 @@
       </c>
       <c r="C108" s="33"/>
       <c r="D108" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>319</v>
+        <v>327</v>
+      </c>
+      <c r="E108" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="F108" s="16"/>
       <c r="G108" s="16" t="s">
@@ -4853,7 +4847,7 @@
       <c r="H108" s="16"/>
       <c r="I108" s="23"/>
     </row>
-    <row r="109" spans="1:9" s="19" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" s="19" customFormat="1" ht="68.25" customHeight="1">
       <c r="A109" s="16" t="s">
         <v>288</v>
       </c>
@@ -4876,7 +4870,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1">
       <c r="A110" s="16" t="s">
         <v>288</v>
       </c>
@@ -4899,7 +4893,7 @@
       <c r="H110" s="16"/>
       <c r="I110" s="23"/>
     </row>
-    <row r="111" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1">
       <c r="A111" s="16" t="s">
         <v>300</v>
       </c>
@@ -4920,7 +4914,7 @@
       <c r="H111" s="16"/>
       <c r="I111" s="23"/>
     </row>
-    <row r="112" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1">
       <c r="A112" s="16" t="s">
         <v>306</v>
       </c>
@@ -4943,7 +4937,7 @@
       <c r="H112" s="16"/>
       <c r="I112" s="23"/>
     </row>
-    <row r="113" spans="1:9" s="19" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" s="19" customFormat="1" ht="119.25" customHeight="1">
       <c r="A113" s="16" t="s">
         <v>307</v>
       </c>
@@ -4966,7 +4960,7 @@
       <c r="H113" s="16"/>
       <c r="I113" s="23"/>
     </row>
-    <row r="114" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" s="19" customFormat="1" ht="75" customHeight="1">
       <c r="A114" s="16" t="s">
         <v>312</v>
       </c>
@@ -4974,10 +4968,10 @@
         <v>313</v>
       </c>
       <c r="C114" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E114" s="31" t="s">
         <v>25</v>
@@ -4989,7 +4983,7 @@
       <c r="H114" s="16"/>
       <c r="I114" s="23"/>
     </row>
-    <row r="115" spans="1:9" s="19" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" s="19" customFormat="1" ht="166.5" customHeight="1">
       <c r="A115" s="16" t="s">
         <v>315</v>
       </c>
@@ -5000,10 +4994,10 @@
         <v>318</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>319</v>
+        <v>326</v>
+      </c>
+      <c r="E115" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="F115" s="16"/>
       <c r="G115" s="16" t="s">
@@ -5012,18 +5006,18 @@
       <c r="H115" s="16"/>
       <c r="I115" s="23"/>
     </row>
-    <row r="116" spans="1:9" s="19" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" s="19" customFormat="1" ht="111" customHeight="1">
       <c r="A116" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B116" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="B116" s="23" t="s">
-        <v>321</v>
-      </c>
       <c r="C116" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E116" s="31" t="s">
         <v>25</v>
@@ -5035,9 +5029,9 @@
       <c r="H116" s="16"/>
       <c r="I116" s="23"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="D118" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -5053,12 +5047,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5066,12 +5060,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
